--- a/pred_ohlcv/54_21/2020-01-13 XLM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 XLM ohlcv.xlsx
@@ -1796,7 +1796,7 @@
         <v>974585.1699245803</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>974585.1699245803</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>974585.1699245803</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>974585.1699245803</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>974585.1699245803</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>974585.1699245803</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>974585.1699245803</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>973107.3150245802</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>978351.4380245802</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>977108.4380245802</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>1010641.70422458</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>1010641.70422458</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>1004692.32792458</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>1004070.32792458</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>1004552.92792458</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>1004494.04042458</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>1004070.04042458</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>1004494.04042458</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>946843.0703245802</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>946843.0703245802</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>946843.0703245802</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>946843.0703245802</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>951370.6793245802</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>933367.7793245802</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>953367.7793245802</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>929616.7793245802</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>929616.7793245802</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>929616.7793245802</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>929616.7793245802</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>929616.7793245802</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>929616.7793245802</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>929616.7793245802</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>931245.7793245802</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>944554.6793245802</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>943554.6793245802</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>907067.2260245802</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>901658.2756245802</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>900866.2756245802</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>204185.1311758304</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>204197.8142758304</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>203619.8152758304</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>207798.5552758304</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>207735.2446758304</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>207775.2446758304</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>207711.8812758304</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>207271.7722758304</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>207271.7722758304</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>188969.6383758304</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>183571.9752758304</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>183571.9752758304</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>187982.7882758304</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>187240.7882758304</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>193258.8882758304</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>202953.1621758304</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>215750.2822758304</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>210150.2822758304</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>220678.4822758304</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>226463.4102758304</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>223058.0100758304</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>223661.1100758304</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>223661.1100758304</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>224402.7100758304</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>231109.6951758304</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>231750.5416758303</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>231650.5416758303</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>228831.6837758303</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>228831.6837758303</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>228831.6837758303</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>228831.6837758303</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>229824.6837758303</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>229258.4440758303</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>229258.4440758303</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>229052.8820758303</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>230542.1628758303</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>233030.1628758303</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>233030.1628758303</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>234269.1231758303</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>252502.4564758303</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>252626.8716758303</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>273607.3802758303</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>248525.9461758303</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>246038.2746758303</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>246726.3370758303</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>246726.3370758303</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>244810.3370758303</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>245436.9942758303</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>254521.5467758303</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>244475.9219758303</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>245134.9219758303</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>245134.9219758303</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>246134.9219758303</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>248975.4247758303</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>250060.1046758303</v>
       </c>
       <c r="H259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>250060.1046758303</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>250029.0362758303</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>252482.7961758303</v>
       </c>
       <c r="H262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>252393.5815758303</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>250314.1209758303</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>250324.1209758303</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>249691.1209758303</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>250621.1209758303</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>252067.3869138903</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>252067.3869138903</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>243415.1987138903</v>
       </c>
       <c r="H270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>258503.5373758303</v>
       </c>
       <c r="H271">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>259053.7023758303</v>
       </c>
       <c r="H272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>259391.7023758303</v>
       </c>
       <c r="H273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>260753.5676758303</v>
       </c>
       <c r="H274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>260753.5676758303</v>
       </c>
       <c r="H275">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>230020.5265758304</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>230020.5265758304</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>218538.7614758304</v>
       </c>
       <c r="H306">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>213921.3400758304</v>
       </c>
       <c r="H307">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>208409.8461758304</v>
       </c>
       <c r="H308">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>208847.0742758304</v>
       </c>
       <c r="H309">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>168672.0742758304</v>
       </c>
       <c r="H310">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>169131.7452758304</v>
       </c>
       <c r="H311">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>170175.6220758304</v>
       </c>
       <c r="H312">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>170175.6220758304</v>
       </c>
       <c r="H313">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>170175.6220758304</v>
       </c>
       <c r="H314">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>170175.6220758304</v>
       </c>
       <c r="H315">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>170175.6220758304</v>
       </c>
       <c r="H316">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>170175.6220758304</v>
       </c>
       <c r="H317">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>170175.6220758304</v>
       </c>
       <c r="H318">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>170175.6220758304</v>
       </c>
       <c r="H319">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>186842.0220758304</v>
       </c>
       <c r="H320">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>186842.0220758304</v>
       </c>
       <c r="H321">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>202689.3476758304</v>
       </c>
       <c r="H322">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>96562.34327583038</v>
       </c>
       <c r="H323">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>107992.5318758304</v>
       </c>
       <c r="H324">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>95497.31217583038</v>
       </c>
       <c r="H325">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>71083.20997583037</v>
       </c>
       <c r="H326">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>53141.58507583037</v>
       </c>
       <c r="H327">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>51910.51207583037</v>
       </c>
       <c r="H328">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>51910.51207583037</v>
       </c>
       <c r="H329">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>51910.51207583037</v>
       </c>
       <c r="H330">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>13162.97517583038</v>
       </c>
       <c r="H331">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>14779.97507583038</v>
       </c>
       <c r="H332">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>10779.97507583038</v>
       </c>
       <c r="H333">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>10779.97507583038</v>
       </c>
       <c r="H334">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>11934.12967583038</v>
       </c>
       <c r="H335">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>11934.12967583038</v>
       </c>
       <c r="H336">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>11934.12967583038</v>
       </c>
       <c r="H337">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>11934.12967583038</v>
       </c>
       <c r="H338">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>11934.12967583038</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>11722.72967583038</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>64635.32645765038</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>65174.32645765038</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>51312.91445765036</v>
       </c>
       <c r="H359">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>51312.91445765036</v>
       </c>
       <c r="H360">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>51725.91295765036</v>
       </c>
       <c r="H361">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>31036.96635765036</v>
       </c>
       <c r="H370">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>31036.96635765036</v>
       </c>
       <c r="H371">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>31036.96635765036</v>
       </c>
       <c r="H372">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>39197.40135765036</v>
       </c>
       <c r="H373">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>39333.16215765036</v>
       </c>
       <c r="H376">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-13 XLM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 XLM ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>342944.7567245801</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>572785.7022245801</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>572785.7022245801</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>572785.7022245801</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>573445.9792245801</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>573445.9792245801</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>573445.9792245801</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>571277.9792245801</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>560728.5210245801</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>560728.5210245801</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -886,7 +886,7 @@
         <v>617929.0128245801</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>617374.6985245801</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>615962.0815245801</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>997414.5456245804</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>1000537.49302458</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>999453.4930245803</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>974585.1699245803</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>974585.1699245803</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>974585.1699245803</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>974585.1699245803</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>974585.1699245803</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>974585.1699245803</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>974585.1699245803</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>974585.1699245803</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>974585.1699245803</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>974585.1699245803</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>974585.1699245803</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>973107.3150245802</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>1010641.70422458</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>1004692.32792458</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>1004070.32792458</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>1004494.04042458</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>1004070.04042458</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>1004494.04042458</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>946843.0703245802</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>946843.0703245802</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>946843.0703245802</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>933367.7793245802</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>953367.7793245802</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>943554.6793245802</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>901658.2756245802</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>204185.1311758304</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>204197.8142758304</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>203619.8152758304</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>207798.5552758304</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>207735.2446758304</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>207775.2446758304</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>207711.8812758304</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>207271.7722758304</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>207271.7722758304</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>188969.6383758304</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>183571.9752758304</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>220678.4822758304</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>231750.5416758303</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>231650.5416758303</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>228831.6837758303</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>228831.6837758303</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>228831.6837758303</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>228831.6837758303</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>229824.6837758303</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>229258.4440758303</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>229258.4440758303</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>229052.8820758303</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>230542.1628758303</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>233030.1628758303</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>233030.1628758303</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>234269.1231758303</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>252502.4564758303</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>246726.3370758303</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>246726.3370758303</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>244810.3370758303</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>245436.9942758303</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>254521.5467758303</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>244475.9219758303</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>245134.9219758303</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>245134.9219758303</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>246134.9219758303</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>248975.4247758303</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>250060.1046758303</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>250060.1046758303</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>250029.0362758303</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>252482.7961758303</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>252393.5815758303</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>250314.1209758303</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>250324.1209758303</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>249691.1209758303</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>250621.1209758303</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>252067.3869138903</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>252067.3869138903</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>243415.1987138903</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>258503.5373758303</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>259053.7023758303</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>259391.7023758303</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>230020.5265758304</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>230020.5265758304</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>230020.5265758304</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>218538.7614758304</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>213921.3400758304</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>208409.8461758304</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>208847.0742758304</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>168672.0742758304</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>169131.7452758304</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>170175.6220758304</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>170175.6220758304</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>170175.6220758304</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>170175.6220758304</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>170175.6220758304</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>170175.6220758304</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>170175.6220758304</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>170175.6220758304</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>186842.0220758304</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>186842.0220758304</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>202689.3476758304</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>96562.34327583038</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>107992.5318758304</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>95497.31217583038</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>71083.20997583037</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>53141.58507583037</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>51910.51207583037</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>51910.51207583037</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>51910.51207583037</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>13162.97517583038</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>14779.97507583038</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>10779.97507583038</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>10779.97507583038</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>11934.12967583038</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>11934.12967583038</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>11934.12967583038</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>11934.12967583038</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>11934.12967583038</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>64635.32645765038</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>54721.09445765036</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>54902.19445765036</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>47053.91445765036</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>47053.91445765036</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>46753.91445765036</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>51312.91445765036</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>51312.91445765036</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>51725.91295765036</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>31036.96635765036</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>31036.96635765036</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>31036.96635765036</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>31036.96635765036</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>31036.96635765036</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>31036.96635765036</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>31036.96635765036</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>31036.96635765036</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>31036.96635765036</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>31036.96635765036</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>31036.96635765036</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>39197.40135765036</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>39197.40135765036</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>39333.16215765036</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>39333.16215765036</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
